--- a/second-order/1879/September1879.xlsx
+++ b/second-order/1879/September1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1879/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16642" documentId="13_ncr:1_{02D6DF4E-A025-4B93-96B2-4AD64BA6B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CBF437-A1E0-481C-8E29-6E64C89DBA71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B29D977-7669-F44A-9A95-F5E504CDDB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="17" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="1" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +410,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -739,9 +740,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -779,7 +780,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -885,7 +886,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1027,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,17 +1038,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1084,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3158,7 +3159,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U35" s="25"/>
     </row>
   </sheetData>
@@ -3182,13 +3183,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3225,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5318,23 +5319,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5371,7 +5372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -7445,7 +7446,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -7484,13 +7485,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7527,7 +7528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9622,13 +9623,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9665,7 +9666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -10250,7 +10251,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -10965,7 +10966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -11030,7 +11031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -11095,7 +11096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -11160,7 +11161,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11760,13 +11761,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -11803,7 +11804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -11998,7 +11999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -12388,7 +12389,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -13038,7 +13039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -13298,7 +13299,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13896,23 +13897,23 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13949,7 +13950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -14664,7 +14665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -14924,7 +14925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -14989,7 +14990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -15249,7 +15250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -15314,7 +15315,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -15574,7 +15575,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -15899,7 +15900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -16023,7 +16024,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -16063,13 +16064,13 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -16106,7 +16107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16171,7 +16172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -16366,7 +16367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -16431,7 +16432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -16561,7 +16562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -16626,7 +16627,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -16756,7 +16757,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -16886,7 +16887,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -17016,7 +17017,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -17211,7 +17212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -17406,7 +17407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -17471,7 +17472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -17666,7 +17667,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -17796,7 +17797,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -17861,7 +17862,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -17926,7 +17927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -17991,7 +17992,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -18056,7 +18057,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -18121,7 +18122,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -18199,23 +18200,23 @@
   <dimension ref="A2:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -18252,7 +18253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18317,7 +18318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -18447,7 +18448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
@@ -18707,7 +18708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -18772,7 +18773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
@@ -18837,7 +18838,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -18967,7 +18968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -19032,7 +19033,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
@@ -19227,7 +19228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -19357,7 +19358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -19552,7 +19553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
@@ -19682,7 +19683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -19812,7 +19813,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
@@ -19877,7 +19878,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -19942,7 +19943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -20072,7 +20073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -20137,7 +20138,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -20267,7 +20268,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20326,7 +20327,7 @@
         <v>2.4809999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -20366,13 +20367,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -20409,7 +20410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20474,7 +20475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -20604,7 +20605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -20799,7 +20800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -21059,7 +21060,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
@@ -21189,7 +21190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -21254,7 +21255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -21319,7 +21320,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -21384,7 +21385,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -21449,7 +21450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -21514,7 +21515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -21579,7 +21580,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -21644,7 +21645,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -21709,7 +21710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -21774,7 +21775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -21904,7 +21905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -21969,7 +21970,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -22034,7 +22035,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
@@ -22099,7 +22100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -22164,7 +22165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -22229,7 +22230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -22294,7 +22295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -22359,7 +22360,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -22424,7 +22425,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22504,13 +22505,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -22547,7 +22548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22612,7 +22613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -22677,7 +22678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -22742,7 +22743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -22807,7 +22808,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -22872,7 +22873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -22937,7 +22938,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -23067,7 +23068,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -23132,7 +23133,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -23197,7 +23198,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -23262,7 +23263,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -23327,7 +23328,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -23392,7 +23393,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -23457,7 +23458,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -23522,7 +23523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -23587,7 +23588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -23652,7 +23653,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -23782,7 +23783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -23847,7 +23848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -23912,7 +23913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -23977,7 +23978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -24042,7 +24043,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -24107,7 +24108,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -24172,7 +24173,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -24302,7 +24303,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -24367,7 +24368,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -24432,7 +24433,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
@@ -24497,7 +24498,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
@@ -24562,7 +24563,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -24638,17 +24639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S1">
         <v>10</v>
       </c>
@@ -24656,7 +24657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -24693,7 +24694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24758,7 +24759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -24823,7 +24824,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -24888,7 +24889,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1">
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -24953,7 +24954,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="1" customFormat="1">
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -25018,7 +25019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="1" customFormat="1">
+    <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -25083,7 +25084,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="1" customFormat="1">
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -25156,7 +25157,7 @@
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
     </row>
-    <row r="10" spans="1:27" s="1" customFormat="1">
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -25221,7 +25222,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="1" customFormat="1">
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -25286,7 +25287,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="1" customFormat="1">
+    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="1" customFormat="1">
+    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -25416,7 +25417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="1" customFormat="1">
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="1" customFormat="1">
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -25546,7 +25547,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="1" customFormat="1">
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1">
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -25676,7 +25677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1">
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1">
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -25806,7 +25807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1">
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1">
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -25937,7 +25938,7 @@
       </c>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1">
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -26003,7 +26004,7 @@
       </c>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1">
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -26068,7 +26069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1">
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -26082,7 +26083,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5">
-        <v>0.81799999999999995</v>
+        <v>29.818000000000001</v>
       </c>
       <c r="F24" s="18">
         <v>29.61</v>
@@ -26133,7 +26134,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1">
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -26147,7 +26148,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="5">
-        <v>0.67800000000000005</v>
+        <v>29.678000000000001</v>
       </c>
       <c r="F25" s="18">
         <v>29.577999999999999</v>
@@ -26201,7 +26202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1">
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -26215,7 +26216,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>29.048999999999999</v>
       </c>
       <c r="F26" s="18">
         <v>29.306000000000001</v>
@@ -26266,7 +26267,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1">
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -26280,7 +26281,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5">
-        <v>0.44800000000000001</v>
+        <v>29.448</v>
       </c>
       <c r="F27" s="18">
         <v>29.637</v>
@@ -26331,7 +26332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1">
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -26345,7 +26346,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>0.80500000000000005</v>
+        <v>29.805</v>
       </c>
       <c r="F28" s="18">
         <v>29.933</v>
@@ -26396,7 +26397,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1">
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -26461,7 +26462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1">
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -26527,7 +26528,7 @@
       </c>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1">
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -26595,7 +26596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1">
+    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -26663,7 +26664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="1" customFormat="1">
+    <row r="33" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -26731,7 +26732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="1" customFormat="1">
+    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26790,62 +26791,62 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>30.1</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>29.739000000000001</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>29.61</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>29.577999999999999</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>29.306000000000001</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>29.637</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>29.933</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>30.242000000000001</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>29.931000000000001</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>29.956</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>30.172999999999998</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>29.920999999999999</v>
       </c>
@@ -26872,13 +26873,13 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -26915,7 +26916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26980,7 +26981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -27045,7 +27046,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -27110,7 +27111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
@@ -27175,7 +27176,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -27240,7 +27241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -27305,7 +27306,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -27370,7 +27371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -27435,7 +27436,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -27500,7 +27501,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
@@ -27630,7 +27631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -27695,7 +27696,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>87</v>
       </c>
@@ -27760,7 +27761,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -27825,7 +27826,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -27890,7 +27891,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
@@ -28020,7 +28021,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
@@ -28085,7 +28086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
@@ -28150,7 +28151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -28215,7 +28216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -28280,7 +28281,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -28345,7 +28346,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
@@ -28410,7 +28411,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
@@ -28475,7 +28476,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>87</v>
       </c>
@@ -28540,7 +28541,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -28605,7 +28606,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -28670,7 +28671,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -28735,7 +28736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -28800,7 +28801,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -28930,7 +28931,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -29008,23 +29009,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -29061,7 +29062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29126,7 +29127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -29191,7 +29192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -29256,7 +29257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -29321,7 +29322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -29386,7 +29387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
@@ -29451,7 +29452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -29516,7 +29517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -29581,7 +29582,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -29646,7 +29647,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -29711,7 +29712,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -29776,7 +29777,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -29841,7 +29842,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -29906,7 +29907,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -29971,7 +29972,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -30036,7 +30037,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -30101,7 +30102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -30166,7 +30167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -30231,7 +30232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -30296,7 +30297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
@@ -30361,7 +30362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -30426,7 +30427,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -30491,7 +30492,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -30556,7 +30557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -30621,7 +30622,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -30686,7 +30687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -30751,7 +30752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -30816,7 +30817,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -30881,7 +30882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -30946,7 +30947,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -31011,7 +31012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -31076,7 +31077,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -31135,7 +31136,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -31174,13 +31175,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -31217,7 +31218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31282,7 +31283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -31412,7 +31413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -31477,7 +31478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
@@ -31542,7 +31543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>93</v>
       </c>
@@ -31607,7 +31608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
@@ -31672,7 +31673,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -31737,7 +31738,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -31802,7 +31803,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
@@ -31867,7 +31868,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -31932,7 +31933,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
@@ -31997,7 +31998,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
@@ -32062,7 +32063,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -32127,7 +32128,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -32192,7 +32193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
@@ -32257,7 +32258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
@@ -32322,7 +32323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -32387,7 +32388,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
@@ -32452,7 +32453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
@@ -32517,7 +32518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
@@ -32582,7 +32583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
@@ -32647,7 +32648,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
@@ -32712,7 +32713,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -32777,7 +32778,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -32842,7 +32843,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -32907,7 +32908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
@@ -32972,7 +32973,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -33037,7 +33038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -33102,7 +33103,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
@@ -33167,7 +33168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -33232,7 +33233,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -33312,13 +33313,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -33355,7 +33356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33420,7 +33421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
@@ -33485,7 +33486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -33550,7 +33551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -33615,7 +33616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -33680,7 +33681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
@@ -33745,7 +33746,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
@@ -33810,7 +33811,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -33875,7 +33876,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -33940,7 +33941,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -34005,7 +34006,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -34070,7 +34071,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -34135,7 +34136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -34200,7 +34201,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -34265,7 +34266,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -34330,7 +34331,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -34395,7 +34396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -34460,7 +34461,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -34525,7 +34526,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
@@ -34590,7 +34591,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -34655,7 +34656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -34720,7 +34721,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -34785,7 +34786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -34850,7 +34851,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -34915,7 +34916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -34980,7 +34981,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -35045,7 +35046,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -35110,7 +35111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -35175,7 +35176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -35240,7 +35241,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
@@ -35305,7 +35306,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -35370,7 +35371,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -35447,23 +35448,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -35500,7 +35501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35565,7 +35566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -35630,7 +35631,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -35695,7 +35696,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
@@ -35760,7 +35761,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>98</v>
       </c>
@@ -35825,7 +35826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -35890,7 +35891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -35955,7 +35956,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>98</v>
       </c>
@@ -36020,7 +36021,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
@@ -36085,7 +36086,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
@@ -36150,7 +36151,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -36215,7 +36216,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
@@ -36280,7 +36281,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -36345,7 +36346,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -36410,7 +36411,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>98</v>
       </c>
@@ -36475,7 +36476,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
@@ -36540,7 +36541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -36605,7 +36606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -36670,7 +36671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
@@ -36735,7 +36736,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -36800,7 +36801,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
@@ -36865,7 +36866,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -36930,7 +36931,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -36995,7 +36996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
@@ -37060,7 +37061,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -37125,7 +37126,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
@@ -37190,7 +37191,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>98</v>
       </c>
@@ -37255,7 +37256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -37320,7 +37321,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -37385,7 +37386,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -37450,7 +37451,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -37515,7 +37516,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -37574,7 +37575,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -37611,23 +37612,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -37664,7 +37665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37729,7 +37730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
@@ -37794,7 +37795,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
@@ -37859,7 +37860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
@@ -37924,7 +37925,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
@@ -37989,7 +37990,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
@@ -38054,7 +38055,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>99</v>
       </c>
@@ -38119,7 +38120,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>99</v>
       </c>
@@ -38184,7 +38185,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>99</v>
       </c>
@@ -38249,7 +38250,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
@@ -38314,7 +38315,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -38379,7 +38380,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -38444,7 +38445,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
@@ -38509,7 +38510,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
@@ -38574,7 +38575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -38639,7 +38640,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
@@ -38704,7 +38705,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>99</v>
       </c>
@@ -38769,7 +38770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
@@ -38834,7 +38835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
@@ -38899,7 +38900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>99</v>
       </c>
@@ -38964,7 +38965,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
@@ -39029,7 +39030,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
@@ -39094,7 +39095,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -39159,7 +39160,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
@@ -39224,7 +39225,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
@@ -39289,7 +39290,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>99</v>
       </c>
@@ -39354,7 +39355,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
@@ -39419,7 +39420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -39484,7 +39485,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -39549,7 +39550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>99</v>
       </c>
@@ -39614,7 +39615,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -39679,7 +39680,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -39738,7 +39739,7 @@
         <v>4.7930000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -39777,12 +39778,12 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -39819,7 +39820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39884,7 +39885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
@@ -39949,7 +39950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -40014,7 +40015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -40079,7 +40080,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>100</v>
       </c>
@@ -40144,7 +40145,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>100</v>
       </c>
@@ -40209,7 +40210,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -40274,7 +40275,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>100</v>
       </c>
@@ -40339,7 +40340,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>100</v>
       </c>
@@ -40404,7 +40405,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
@@ -40469,7 +40470,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
@@ -40534,7 +40535,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>100</v>
       </c>
@@ -40599,7 +40600,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -40664,7 +40665,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
@@ -40729,7 +40730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>100</v>
       </c>
@@ -40794,7 +40795,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -40859,7 +40860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>100</v>
       </c>
@@ -40924,7 +40925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>100</v>
       </c>
@@ -40989,7 +40990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -41054,7 +41055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -41119,7 +41120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -41184,7 +41185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
@@ -41249,7 +41250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -41314,7 +41315,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -41379,7 +41380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -41444,7 +41445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -41509,7 +41510,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
@@ -41574,7 +41575,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>100</v>
       </c>
@@ -41639,7 +41640,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
@@ -41704,7 +41705,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>100</v>
       </c>
@@ -41769,7 +41770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>100</v>
       </c>
@@ -41834,7 +41835,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -41912,23 +41913,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -41965,7 +41966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -42030,7 +42031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
@@ -42095,7 +42096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
@@ -42160,7 +42161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -42225,7 +42226,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -42290,7 +42291,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>103</v>
       </c>
@@ -42355,7 +42356,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
@@ -42420,7 +42421,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>103</v>
       </c>
@@ -42485,7 +42486,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
@@ -42550,7 +42551,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>103</v>
       </c>
@@ -42615,7 +42616,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
@@ -42680,7 +42681,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>103</v>
       </c>
@@ -42745,7 +42746,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
@@ -42810,7 +42811,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
@@ -42875,7 +42876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -42940,7 +42941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -43005,7 +43006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>103</v>
       </c>
@@ -43070,7 +43071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>103</v>
       </c>
@@ -43135,7 +43136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
@@ -43200,7 +43201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -43265,7 +43266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
@@ -43330,7 +43331,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
@@ -43395,7 +43396,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
@@ -43460,7 +43461,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>103</v>
       </c>
@@ -43525,7 +43526,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
@@ -43590,7 +43591,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -43655,7 +43656,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -43720,7 +43721,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>103</v>
       </c>
@@ -43785,7 +43786,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>103</v>
       </c>
@@ -43850,7 +43851,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
@@ -43915,7 +43916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -43980,7 +43981,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -44039,7 +44040,7 @@
         <v>4.6020000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -44075,23 +44076,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -44128,7 +44129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -44193,7 +44194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -44258,7 +44259,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -44323,7 +44324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -44388,7 +44389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -44453,7 +44454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -44518,7 +44519,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -44583,7 +44584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -44648,7 +44649,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -44713,7 +44714,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -44778,7 +44779,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -44843,7 +44844,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -44908,7 +44909,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -44973,7 +44974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -45038,7 +45039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -45103,7 +45104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -45168,7 +45169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -45233,7 +45234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -45298,7 +45299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -45363,7 +45364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -45428,7 +45429,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -45493,7 +45494,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -45558,7 +45559,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -45623,7 +45624,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -45688,7 +45689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -45753,7 +45754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -45818,7 +45819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -45883,7 +45884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -45948,7 +45949,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -46013,7 +46014,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -46078,7 +46079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -46143,7 +46144,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -46202,7 +46203,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -46239,23 +46240,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -46292,7 +46293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -46357,7 +46358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -46422,7 +46423,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -46487,7 +46488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -46552,7 +46553,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -46617,7 +46618,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -46682,7 +46683,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -46747,7 +46748,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -46812,7 +46813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -46877,7 +46878,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -46942,7 +46943,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -47007,7 +47008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -47072,7 +47073,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -47137,7 +47138,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -47202,7 +47203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -47267,7 +47268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -47332,7 +47333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -47397,7 +47398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -47462,7 +47463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -47527,7 +47528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -47592,7 +47593,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -47657,7 +47658,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -47722,7 +47723,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -47787,7 +47788,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -47852,7 +47853,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -47917,7 +47918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -47982,7 +47983,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -48047,7 +48048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -48112,7 +48113,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -48177,7 +48178,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -48242,7 +48243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -48307,7 +48308,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -48366,7 +48367,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -48406,13 +48407,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -48449,7 +48450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -48514,7 +48515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -48579,7 +48580,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -48644,7 +48645,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -48709,7 +48710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -48774,7 +48775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -48839,7 +48840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -48904,7 +48905,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -48969,7 +48970,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -49034,7 +49035,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -49099,7 +49100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -49164,7 +49165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -49229,7 +49230,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -49294,7 +49295,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -49359,7 +49360,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -49424,7 +49425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -49489,7 +49490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -49554,7 +49555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -49619,7 +49620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -49684,7 +49685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -49749,7 +49750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -49814,7 +49815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -49879,7 +49880,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -49944,7 +49945,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -50009,7 +50010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -50074,7 +50075,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -50139,7 +50140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -50204,7 +50205,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -50269,7 +50270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -50334,7 +50335,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -50399,7 +50400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -50464,7 +50465,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50542,23 +50543,23 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -50595,7 +50596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -50660,7 +50661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -50725,7 +50726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -50790,7 +50791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -50855,7 +50856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -50920,7 +50921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -50985,7 +50986,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -51050,7 +51051,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -51115,7 +51116,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -51180,7 +51181,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -51245,7 +51246,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -51310,7 +51311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -51375,7 +51376,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -51440,7 +51441,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -51505,7 +51506,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -51570,7 +51571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -51635,7 +51636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -51700,7 +51701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -51765,7 +51766,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -51830,7 +51831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -51895,7 +51896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -51960,7 +51961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -52025,7 +52026,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -52090,7 +52091,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -52155,7 +52156,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -52220,7 +52221,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -52285,7 +52286,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -52350,7 +52351,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -52415,7 +52416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -52480,7 +52481,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -52545,7 +52546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -52610,7 +52611,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -52669,7 +52670,7 @@
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -52706,23 +52707,23 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -52759,7 +52760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -52824,7 +52825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -52889,7 +52890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -52954,7 +52955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -53019,7 +53020,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -53084,7 +53085,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -53149,7 +53150,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -53214,7 +53215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -53279,7 +53280,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -53344,7 +53345,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -53409,7 +53410,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -53474,7 +53475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -53539,7 +53540,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -53604,7 +53605,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -53669,7 +53670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -53734,7 +53735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -53799,7 +53800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -53864,7 +53865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -53929,7 +53930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -53994,7 +53995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -54059,7 +54060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -54124,7 +54125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -54189,7 +54190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -54254,7 +54255,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -54319,7 +54320,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -54384,7 +54385,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -54449,7 +54450,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -54514,7 +54515,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -54579,7 +54580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -54644,7 +54645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -54709,7 +54710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -54774,7 +54775,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -54833,7 +54834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -54873,23 +54874,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -54926,7 +54927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -54991,7 +54992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -55056,7 +55057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -55121,7 +55122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -55186,7 +55187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -55251,7 +55252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -55316,7 +55317,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -55381,7 +55382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -55446,7 +55447,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -55511,7 +55512,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -55576,7 +55577,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -55641,7 +55642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -55706,7 +55707,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -55771,7 +55772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -55836,7 +55837,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -55901,7 +55902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -55966,7 +55967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -56031,7 +56032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -56096,7 +56097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -56161,7 +56162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -56226,7 +56227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -56291,7 +56292,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -56356,7 +56357,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -56421,7 +56422,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -56486,7 +56487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -56551,7 +56552,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -56616,7 +56617,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -56681,7 +56682,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -56746,7 +56747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -56811,7 +56812,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -56876,7 +56877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -56941,7 +56942,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -57000,7 +57001,7 @@
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -57039,13 +57040,13 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -57082,7 +57083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -57147,7 +57148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -57212,7 +57213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -57277,7 +57278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -57342,7 +57343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -57407,7 +57408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -57472,7 +57473,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -57537,7 +57538,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -57602,7 +57603,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -57667,7 +57668,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -57732,7 +57733,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -57797,7 +57798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -57862,7 +57863,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -57927,7 +57928,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -57992,7 +57993,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -58057,7 +58058,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -58122,7 +58123,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -58187,7 +58188,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -58252,7 +58253,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -58317,7 +58318,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -58382,7 +58383,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -58447,7 +58448,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
@@ -58512,7 +58513,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -58577,7 +58578,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -58642,7 +58643,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -58707,7 +58708,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -58772,7 +58773,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -58837,7 +58838,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -58902,7 +58903,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -58967,7 +58968,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -59032,7 +59033,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -59097,7 +59098,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -59170,26 +59171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35922</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35922</Url>
-      <Description>H7Q62YT2XCZT-908671883-35922</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -59239,16 +59220,27 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35922</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35922</Url>
+      <Description>H7Q62YT2XCZT-908671883-35922</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -59555,18 +59547,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB7FA44-2B27-4DAD-96B6-6DDCB923CF7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB7FA44-2B27-4DAD-96B6-6DDCB923CF7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9520BAF-DC42-4EB8-96C3-891BD4AEA120}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9520BAF-DC42-4EB8-96C3-891BD4AEA120}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>